--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -2769,6 +2769,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2781,26 +2790,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2817,25 +2850,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2847,32 +2865,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3722,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3793,7 +3793,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3804,7 +3804,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="14" t="s">
         <v>114</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="95" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3833,7 +3833,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="95" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="38" t="s">
         <v>109</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="B20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="95" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3912,11 +3912,11 @@
       <c r="B21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="43" t="s">
         <v>100</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="95" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="14" t="s">
         <v>95</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="14" t="s">
         <v>96</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="14" t="s">
         <v>123</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="14" t="s">
         <v>97</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="14" t="s">
         <v>98</v>
       </c>
@@ -4010,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -4028,69 +4028,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="98" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="90" t="s">
         <v>450</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="K5" s="119"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -4099,7 +4099,7 @@
       <c r="B6" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="91" t="s">
         <v>462</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -4129,7 +4129,7 @@
       <c r="A7" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="91" t="s">
         <v>460</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -4141,7 +4141,7 @@
       <c r="G7" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="91" t="s">
         <v>466</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -4229,15 +4229,15 @@
       <c r="K11" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4340,13 +4340,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="99" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -4354,9 +4354,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="51" t="s">
         <v>384</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="102" t="s">
         <v>200</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -4429,7 +4429,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="78" t="s">
         <v>403</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="51" t="s">
         <v>195</v>
       </c>
@@ -4453,7 +4453,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
@@ -4465,64 +4465,64 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="99" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="99" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="99" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="99" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
@@ -4613,25 +4613,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="101"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="51" t="s">
         <v>161</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="57" t="s">
         <v>157</v>
       </c>
@@ -4661,13 +4661,13 @@
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="54" t="s">
         <v>155</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="54" t="s">
         <v>154</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="51" t="s">
         <v>390</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="51" t="s">
         <v>153</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="51" t="s">
         <v>151</v>
       </c>
@@ -4717,13 +4717,13 @@
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="54" t="s">
         <v>149</v>
       </c>
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="86" t="s">
         <v>147</v>
       </c>
@@ -4747,7 +4747,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="54" t="s">
         <v>145</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="54" t="s">
         <v>143</v>
       </c>
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="102" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4795,7 +4795,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="85" t="s">
         <v>133</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="96"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="51" t="s">
         <v>131</v>
       </c>
@@ -4819,7 +4819,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="96"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="51" t="s">
         <v>130</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="51" t="s">
         <v>128</v>
       </c>
@@ -4844,11 +4844,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4859,6 +4854,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4893,10 +4893,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>378</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4911,7 +4911,7 @@
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107"/>
-      <c r="B3" s="105"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="18" t="s">
         <v>374</v>
       </c>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="107"/>
-      <c r="B4" s="105"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="107"/>
-      <c r="B5" s="105"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="5" t="s">
         <v>368</v>
       </c>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="107"/>
-      <c r="B6" s="105"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="5" t="s">
         <v>365</v>
       </c>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107"/>
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="72" t="s">
         <v>377</v>
       </c>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="107"/>
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="107"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>363</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -5004,7 +5004,7 @@
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="107"/>
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="80" t="s">
         <v>361</v>
       </c>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="107"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="19" t="s">
         <v>359</v>
       </c>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="4" t="s">
         <v>357</v>
       </c>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="107"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
-      <c r="B14" s="105"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="19" t="s">
         <v>354</v>
       </c>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="107"/>
-      <c r="B15" s="105"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="107"/>
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="4" t="s">
         <v>350</v>
       </c>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="107"/>
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="5" t="s">
         <v>348</v>
       </c>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="107"/>
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="7" t="s">
         <v>343</v>
       </c>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="107"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="7" t="s">
         <v>342</v>
       </c>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="107"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A22" s="107"/>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="109" t="s">
         <v>340</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5177,7 +5177,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="107"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="5" t="s">
         <v>337</v>
       </c>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="107"/>
-      <c r="B24" s="105"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="108"/>
-      <c r="B25" s="105"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="18" t="s">
         <v>331</v>
       </c>
@@ -5231,10 +5231,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="110" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5248,8 +5248,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="5" t="s">
         <v>323</v>
       </c>
@@ -5261,8 +5261,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="5" t="s">
         <v>321</v>
       </c>
@@ -5274,12 +5274,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="103" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -5287,17 +5287,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="5" t="s">
         <v>317</v>
       </c>
@@ -5307,8 +5307,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="5" t="s">
         <v>315</v>
       </c>
@@ -5318,8 +5318,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="5" t="s">
         <v>313</v>
       </c>
@@ -5329,8 +5329,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="5" t="s">
         <v>311</v>
       </c>
@@ -5340,8 +5340,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="18" t="s">
         <v>309</v>
       </c>
@@ -5353,8 +5353,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="5" t="s">
         <v>307</v>
       </c>
@@ -5364,8 +5364,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="5" t="s">
         <v>305</v>
       </c>
@@ -5373,8 +5373,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="18" t="s">
         <v>304</v>
       </c>
@@ -5386,8 +5386,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="18" t="s">
         <v>301</v>
       </c>
@@ -5399,8 +5399,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="5" t="s">
         <v>298</v>
       </c>
@@ -5410,8 +5410,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="105"/>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110" t="s">
         <v>296</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5423,8 +5423,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="5" t="s">
         <v>293</v>
       </c>
@@ -5434,8 +5434,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="5" t="s">
         <v>291</v>
       </c>
@@ -5445,8 +5445,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="5" t="s">
         <v>289</v>
       </c>
@@ -5456,8 +5456,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="16" t="s">
         <v>287</v>
       </c>
@@ -5467,8 +5467,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="105"/>
-      <c r="B48" s="109" t="s">
+      <c r="A48" s="109"/>
+      <c r="B48" s="110" t="s">
         <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -5480,8 +5480,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -5491,8 +5491,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -5502,8 +5502,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -5513,8 +5513,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="16" t="s">
         <v>280</v>
       </c>
@@ -5524,8 +5524,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105" t="s">
+      <c r="A53" s="109"/>
+      <c r="B53" s="109" t="s">
         <v>278</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5539,8 +5539,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="16" t="s">
         <v>275</v>
       </c>
@@ -5552,8 +5552,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="5" t="s">
         <v>272</v>
       </c>
@@ -5563,8 +5563,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105" t="s">
+      <c r="A56" s="109"/>
+      <c r="B56" s="109" t="s">
         <v>270</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5578,8 +5578,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="16" t="s">
         <v>267</v>
       </c>
@@ -5591,8 +5591,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="5" t="s">
         <v>264</v>
       </c>
@@ -5609,10 +5609,10 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="119" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="18" t="s">
@@ -5626,8 +5626,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="18" t="s">
         <v>405</v>
       </c>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A62" s="107"/>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="118" t="s">
         <v>258</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -5653,7 +5653,7 @@
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A63" s="107"/>
-      <c r="B63" s="112"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
         <v>254</v>
       </c>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="107"/>
-      <c r="B64" s="112"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
         <v>251</v>
       </c>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
-      <c r="B65" s="112"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
         <v>248</v>
       </c>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A66" s="107"/>
-      <c r="B66" s="112"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
         <v>246</v>
       </c>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A67" s="107"/>
-      <c r="B67" s="112"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
         <v>243</v>
       </c>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
-      <c r="B68" s="112"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
         <v>241</v>
       </c>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="107"/>
-      <c r="B69" s="112"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
         <v>239</v>
       </c>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A70" s="108"/>
-      <c r="B70" s="112"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
         <v>420</v>
       </c>
@@ -5770,10 +5770,10 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="116" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5787,7 +5787,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="101"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="107"/>
       <c r="C74" s="32" t="s">
         <v>231</v>
@@ -5798,7 +5798,7 @@
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
+      <c r="A75" s="112"/>
       <c r="B75" s="107"/>
       <c r="C75" s="32" t="s">
         <v>235</v>
@@ -5809,7 +5809,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
+      <c r="A76" s="112"/>
       <c r="B76" s="107"/>
       <c r="C76" s="32" t="s">
         <v>229</v>
@@ -5822,7 +5822,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="101"/>
+      <c r="A77" s="112"/>
       <c r="B77" s="107"/>
       <c r="C77" s="4" t="s">
         <v>227</v>
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="101"/>
+      <c r="A78" s="112"/>
       <c r="B78" s="107"/>
       <c r="C78" s="4" t="s">
         <v>225</v>
@@ -5846,7 +5846,7 @@
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="101"/>
+      <c r="A79" s="112"/>
       <c r="B79" s="107"/>
       <c r="C79" s="31" t="s">
         <v>223</v>
@@ -5859,7 +5859,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="101"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="107"/>
       <c r="C80" s="32" t="s">
         <v>431</v>
@@ -5872,7 +5872,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="101"/>
+      <c r="A81" s="112"/>
       <c r="B81" s="107"/>
       <c r="C81" s="31" t="s">
         <v>221</v>
@@ -5883,7 +5883,7 @@
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="108"/>
       <c r="C82" s="4" t="s">
         <v>219</v>
@@ -5897,13 +5897,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5914,6 +5907,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5960,7 +5960,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -5969,7 +5969,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -5980,7 +5980,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6018,7 +6018,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6027,7 +6027,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6036,25 +6036,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="121" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="121" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="122"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="123" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6083,7 +6083,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6121,7 +6121,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6130,7 +6130,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6139,7 +6139,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6159,42 +6159,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="123" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6203,35 +6203,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6279,16 +6279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
